--- a/data/trans_dic/P8_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,27; 26,39</t>
+          <t>21,11; 26,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,68; 34,95</t>
+          <t>28,75; 34,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,58; 36,3</t>
+          <t>29,41; 36,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,25; 37,34</t>
+          <t>29,88; 36,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,76; 44,06</t>
+          <t>38,76; 44,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,96; 51,5</t>
+          <t>45,59; 51,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,3; 50,84</t>
+          <t>44,39; 50,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,03; 56,54</t>
+          <t>50,92; 56,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,93; 35,71</t>
+          <t>31,74; 35,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,37; 43,68</t>
+          <t>39,3; 43,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,85; 43,45</t>
+          <t>38,8; 43,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,47; 48,14</t>
+          <t>43,69; 48,32</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,91</t>
+          <t>4,65; 6,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 9,31</t>
+          <t>6,71; 9,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 10,24</t>
+          <t>7,73; 10,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,5; 21,38</t>
+          <t>12,46; 21,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 9,92</t>
+          <t>7,07; 9,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,46; 13,72</t>
+          <t>10,4; 13,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,38; 15,77</t>
+          <t>12,57; 16,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,81</t>
+          <t>11,98; 15,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 7,91</t>
+          <t>6,17; 7,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,92; 11,06</t>
+          <t>8,88; 10,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 12,49</t>
+          <t>10,44; 12,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 18,48</t>
+          <t>13,28; 18,34</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,04</t>
+          <t>3,27; 7,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 10,76</t>
+          <t>4,99; 10,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,5</t>
+          <t>4,89; 9,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,48</t>
+          <t>4,8; 8,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 12,43</t>
+          <t>6,61; 12,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 11,47</t>
+          <t>6,15; 11,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 11,34</t>
+          <t>6,21; 11,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 10,64</t>
+          <t>7,09; 10,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 8,6</t>
+          <t>5,37; 8,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,16</t>
+          <t>6,06; 10,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,35</t>
+          <t>5,87; 9,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 8,82</t>
+          <t>6,5; 9,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,13; 12,3</t>
+          <t>10,1; 12,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,98</t>
+          <t>13,46; 15,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,76; 15,09</t>
+          <t>12,77; 15,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,65; 20,65</t>
+          <t>14,66; 21,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 23,05</t>
+          <t>19,99; 22,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 26,77</t>
+          <t>23,91; 26,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,16; 24,27</t>
+          <t>21,08; 24,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,57; 23,23</t>
+          <t>19,8; 23,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,34</t>
+          <t>15,53; 17,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 21,02</t>
+          <t>19,12; 21,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 19,37</t>
+          <t>17,45; 19,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,11; 21,54</t>
+          <t>18,16; 21,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,11; 26,24</t>
+          <t>21,06; 26,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,75; 34,82</t>
+          <t>28,77; 34,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,41; 36,06</t>
+          <t>29,45; 36,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,76; 44,37</t>
+          <t>38,79; 44,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,59; 51,37</t>
+          <t>46,04; 51,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,39; 50,79</t>
+          <t>44,36; 51,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,74; 35,9</t>
+          <t>31,8; 35,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,3; 43,5</t>
+          <t>39,2; 43,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,8; 43,52</t>
+          <t>38,9; 43,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 6,89</t>
+          <t>4,59; 6,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 9,45</t>
+          <t>6,81; 9,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,73; 10,21</t>
+          <t>7,78; 10,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 9,82</t>
+          <t>7,09; 10,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,4; 13,6</t>
+          <t>10,42; 13,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,0</t>
+          <t>12,46; 15,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 7,99</t>
+          <t>6,23; 8,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,88; 10,89</t>
+          <t>8,91; 11,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,44; 12,52</t>
+          <t>10,5; 12,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,3</t>
+          <t>3,34; 7,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 10,54</t>
+          <t>4,88; 10,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,66</t>
+          <t>4,79; 9,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,06</t>
+          <t>6,58; 12,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 11,65</t>
+          <t>6,04; 11,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 11,3</t>
+          <t>6,07; 11,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,84</t>
+          <t>5,26; 8,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,09</t>
+          <t>6,15; 9,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,45</t>
+          <t>5,95; 9,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 12,34</t>
+          <t>10,25; 12,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,46; 15,94</t>
+          <t>13,42; 15,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,2</t>
+          <t>12,76; 15,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,99; 22,83</t>
+          <t>19,97; 22,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,91; 26,91</t>
+          <t>23,7; 26,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,08; 24,15</t>
+          <t>21,2; 24,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,53; 17,29</t>
+          <t>15,48; 17,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,12; 21,1</t>
+          <t>19,08; 21,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,45; 19,35</t>
+          <t>17,32; 19,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P8_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,06; 26,09</t>
+          <t>21,27; 26,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,77; 34,79</t>
+          <t>28,68; 34,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,45; 36,31</t>
+          <t>29,58; 36,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,88; 36,97</t>
+          <t>30,25; 37,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,79; 44,28</t>
+          <t>38,76; 44,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,04; 51,51</t>
+          <t>45,96; 51,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,36; 51,01</t>
+          <t>44,3; 50,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,92; 56,72</t>
+          <t>51,03; 56,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,8; 35,74</t>
+          <t>31,93; 35,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,2; 43,46</t>
+          <t>39,37; 43,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,9; 43,69</t>
+          <t>38,85; 43,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,69; 48,32</t>
+          <t>43,47; 48,14</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 6,88</t>
+          <t>4,61; 6,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 9,31</t>
+          <t>6,78; 9,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 10,32</t>
+          <t>7,65; 10,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,46; 21,74</t>
+          <t>12,5; 21,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,01</t>
+          <t>7,11; 9,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,42; 13,84</t>
+          <t>10,46; 13,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,46; 15,86</t>
+          <t>12,38; 15,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 15,82</t>
+          <t>11,68; 15,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 8,02</t>
+          <t>6,16; 7,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,91; 11,0</t>
+          <t>8,92; 11,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,5; 12,53</t>
+          <t>10,41; 12,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,28; 18,34</t>
+          <t>13,08; 18,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,02</t>
+          <t>3,09; 7,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,23</t>
+          <t>5,13; 10,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,72</t>
+          <t>4,64; 9,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,34</t>
+          <t>4,76; 8,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 12,22</t>
+          <t>6,76; 12,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,45</t>
+          <t>5,87; 11,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,07</t>
+          <t>5,98; 11,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,47</t>
+          <t>7,15; 10,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,61</t>
+          <t>5,39; 8,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,93</t>
+          <t>6,17; 10,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,7</t>
+          <t>6,0; 9,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 9,0</t>
+          <t>6,45; 8,82</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 12,43</t>
+          <t>10,13; 12,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,42; 15,98</t>
+          <t>13,31; 15,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,76; 15,2</t>
+          <t>12,76; 15,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,66; 21,1</t>
+          <t>14,65; 20,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,97; 22,75</t>
+          <t>20,21; 23,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,7; 26,75</t>
+          <t>23,86; 26,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,2; 24,2</t>
+          <t>21,16; 24,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 23,23</t>
+          <t>19,57; 23,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,27</t>
+          <t>15,48; 17,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 21,15</t>
+          <t>19,08; 21,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,32; 19,33</t>
+          <t>17,46; 19,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,16; 21,24</t>
+          <t>18,11; 21,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>45,88%</t>
+          <t>45,26%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,25; 37,34</t>
+          <t>29,92; 37,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,03; 56,54</t>
+          <t>50,7; 56,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,47; 48,14</t>
+          <t>42,92; 47,52</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,5; 21,38</t>
+          <t>12,26; 41,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,81</t>
+          <t>8,91; 15,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 18,48</t>
+          <t>12,39; 33,48</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,48</t>
+          <t>4,71; 8,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 10,64</t>
+          <t>7,01; 10,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 8,82</t>
+          <t>6,34; 8,69</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>20,68%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,65; 20,65</t>
+          <t>14,48; 38,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,57; 23,23</t>
+          <t>16,1; 22,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,11; 21,54</t>
+          <t>17,43; 31,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,27; 26,39</t>
+          <t>21,16; 26,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,68; 34,95</t>
+          <t>28,52; 34,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,58; 36,3</t>
+          <t>29,57; 35,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,92; 37,23</t>
+          <t>29,52; 37,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,76; 44,06</t>
+          <t>38,92; 44,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,96; 51,5</t>
+          <t>45,75; 51,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>44,3; 50,84</t>
+          <t>44,34; 50,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,7; 56,07</t>
+          <t>50,59; 56,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,93; 35,71</t>
+          <t>31,81; 35,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,37; 43,68</t>
+          <t>39,22; 43,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,85; 43,45</t>
+          <t>38,72; 43,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,92; 47,52</t>
+          <t>42,79; 47,35</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,91</t>
+          <t>4,59; 6,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 9,31</t>
+          <t>6,83; 9,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 10,24</t>
+          <t>7,74; 10,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,26; 41,58</t>
+          <t>12,19; 45,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,11; 9,92</t>
+          <t>7,24; 9,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,46; 13,72</t>
+          <t>10,28; 13,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,38; 15,77</t>
+          <t>12,51; 15,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,91; 15,1</t>
+          <t>9,75; 15,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 7,91</t>
+          <t>6,17; 7,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,92; 11,06</t>
+          <t>8,85; 11,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 12,49</t>
+          <t>10,44; 12,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 33,48</t>
+          <t>12,48; 31,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,04</t>
+          <t>3,4; 7,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 10,76</t>
+          <t>4,89; 10,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,5</t>
+          <t>4,79; 9,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,38</t>
+          <t>4,7; 8,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 12,43</t>
+          <t>6,42; 12,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 11,47</t>
+          <t>6,19; 11,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 11,34</t>
+          <t>6,1; 11,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,01; 10,44</t>
+          <t>7,05; 10,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 8,6</t>
+          <t>5,32; 8,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,16</t>
+          <t>6,2; 10,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,35</t>
+          <t>6,07; 9,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,69</t>
+          <t>6,28; 8,68</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,13; 12,3</t>
+          <t>10,18; 12,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,98</t>
+          <t>13,38; 15,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,76; 15,09</t>
+          <t>12,6; 15,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 38,32</t>
+          <t>14,36; 38,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,21; 23,05</t>
+          <t>20,0; 22,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 26,77</t>
+          <t>23,69; 26,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,16; 24,27</t>
+          <t>21,19; 24,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,35</t>
+          <t>16,22; 22,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 17,34</t>
+          <t>15,49; 17,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 21,02</t>
+          <t>19,17; 21,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 19,37</t>
+          <t>17,42; 19,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,43; 31,07</t>
+          <t>17,38; 30,59</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación a hacer esfuerzos moderados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>243494</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>309195</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>247392</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>171459</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>546526</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>648531</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>473368</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>403579</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>790020</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>957726</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>720760</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>575038</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>218306; 269842</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>278004; 340654</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>223061; 270665</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>152017; 193315</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>511903; 582904</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>612054; 684425</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>441051; 504785</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>382184; 424687</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>746635; 838503</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>907011; 1003370</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>677154; 759872</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>543588; 601495</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>95192</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>156138</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>185117</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>503455</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>134409</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>210564</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>280672</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>293512</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>229600</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>366703</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>465788</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>796967</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>77804; 116252</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>134175; 188340</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>160649; 210257</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>279127; 1051386</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>115007; 158576</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>180633; 241799</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>248760; 314108</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>218216; 337797</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>202480; 259608</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>329221; 409938</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>424156; 508427</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>565004; 1408828</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27079</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>35328</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>37919</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>41191</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>43081</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39197</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>45987</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>56210</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>70160</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>74525</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>83905</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>97401</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18740; 39452</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23528; 50047</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26212; 51496</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>30362; 52611</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>30579; 57773</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28400; 54366</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33483; 61785</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46554; 68791</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>54649; 88145</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>58289; 95014</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>66513; 105404</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>82032; 113452</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1433</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1074</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1163</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>365764</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>500661</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>470427</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>716105</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>724015</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>898292</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>800027</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>753301</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1089779</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1398953</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1270454</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1469406</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>333464; 400371</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>457737; 543892</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>425417; 511486</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>495614; 1321774</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>675730; 775730</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>841931; 950740</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>748397; 850467</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>592598; 821064</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1030860; 1155726</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1337111; 1468869</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1203671; 1339066</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1235107; 2173454</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>